--- a/Helper/src/test/resources/data.xlsx
+++ b/Helper/src/test/resources/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SBMSolution\resources\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TA.Lab.YaroslavKuts\Helper\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +439,7 @@
     <col min="3" max="3" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -459,8 +460,11 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
